--- a/数据挖掘实战-基于transforms的情感分析/结果表格.xlsx
+++ b/数据挖掘实战-基于transforms的情感分析/结果表格.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_yuhaozeng\Desktop\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\data-visualization3\数据挖掘实战-基于transforms的情感分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D9BA8-24A2-49A2-B23C-6D44B31DA045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0F75B7-7638-43D2-8FBA-CEE8D70D7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34080" yWindow="3285" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,11 +110,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -454,19 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -487,13 +479,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.38679999999999998</v>
+        <v>0.42530000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>2.8500000000000001E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>0.5847</v>
+        <v>0.55159999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -501,13 +493,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.42359999999999998</v>
+        <v>0.44330000000000003</v>
       </c>
       <c r="C3" s="2">
-        <v>1.5599999999999999E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>0.56079999999999997</v>
+        <v>0.55049999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -515,13 +507,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.49009999999999998</v>
+        <v>0.45069999999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>1.55E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.49440000000000001</v>
+        <v>0.5282</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -529,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.3836</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="C5" s="2">
-        <v>1.0800000000000001E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.60560000000000003</v>
+        <v>0.57779999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -543,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.53200000000000003</v>
+        <v>0.57930000000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>1.6299999999999999E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.45169999999999999</v>
+        <v>0.39929999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -557,13 +549,27 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.49590000000000001</v>
+        <v>0.49880000000000002</v>
       </c>
       <c r="C7" s="2">
-        <v>1.6500000000000001E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.48770000000000002</v>
+        <v>0.4824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.3977</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.47E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.58760000000000001</v>
       </c>
     </row>
   </sheetData>
